--- a/02_Document/Study.xlsx
+++ b/02_Document/Study.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="QnA" sheetId="16" r:id="rId1"/>
-    <sheet name="CubeIDE" sheetId="10" r:id="rId2"/>
-    <sheet name="Eclipse" sheetId="12" r:id="rId3"/>
-    <sheet name="Primitive" sheetId="13" r:id="rId4"/>
+    <sheet name="C" sheetId="21" r:id="rId1"/>
+    <sheet name="QnA" sheetId="16" r:id="rId2"/>
+    <sheet name="CubeIDE" sheetId="10" r:id="rId3"/>
+    <sheet name="Eclipse" sheetId="12" r:id="rId4"/>
     <sheet name="MemLayout" sheetId="17" r:id="rId5"/>
     <sheet name="BootProcess" sheetId="18" r:id="rId6"/>
     <sheet name="AdvancedDebugging" sheetId="20" r:id="rId7"/>
     <sheet name="GPIO" sheetId="15" r:id="rId8"/>
+    <sheet name="USART" sheetId="22" r:id="rId9"/>
+    <sheet name="SPI" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="782">
   <si>
     <t>HAL_Init()</t>
   </si>
@@ -203,76 +205,13 @@
     <t>gen hex file (default build is elf file)</t>
   </si>
   <si>
-    <t>GPIO</t>
-  </si>
-  <si>
     <t>USART</t>
   </si>
   <si>
-    <t>SPI</t>
-  </si>
-  <si>
-    <t>WDG</t>
-  </si>
-  <si>
-    <t>TIMER</t>
-  </si>
-  <si>
     <t>Thumb instruction set</t>
   </si>
   <si>
     <t>endian</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>gcc</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>gdb</t>
-  </si>
-  <si>
-    <t>Linker</t>
-  </si>
-  <si>
-    <t>Startup code</t>
-  </si>
-  <si>
-    <t>Steps to configure STM32 peripheral</t>
-  </si>
-  <si>
-    <t>1. Enable clocks to the peripheral</t>
-  </si>
-  <si>
-    <t>2. Configure pins required by the peripheral</t>
-  </si>
-  <si>
-    <t>3. Configure peripheral hardware</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>in-circuit serial programmer (ICSP)</t>
-  </si>
-  <si>
-    <t>STM32 MCU</t>
-  </si>
-  <si>
-    <t>&lt;&lt;USB&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;JTAG/SWD&gt;&gt;</t>
   </si>
   <si>
     <t>Answer</t>
@@ -533,9 +472,6 @@
 - Exception: fault events related to software execution</t>
   </si>
   <si>
-    <t>Exception handler</t>
-  </si>
-  <si>
     <t>event mode VS interrupt mode</t>
   </si>
   <si>
@@ -665,9 +601,6 @@
     <t>void HAL_GPIO_DeInit(GPIO_TypeDef *GPIOx, uint32_t GPIO_Pin)</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>Why has GPIOx_BRR beside GPIOx_BSRR registers?</t>
   </si>
   <si>
@@ -824,9 +757,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>Internal VS external pull-up resistors</t>
   </si>
   <si>
     <t>Push-pull VS open-drain output mode. How these modes affect Alt Func</t>
@@ -1593,18 +1523,2739 @@
   </si>
   <si>
     <t>However, use BSRR is more convenient</t>
+  </si>
+  <si>
+    <r>
+      <t>Why need casting in: #define GPIOA_MODER  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(uint32_t*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GPIOA_BASE + 0x00))</t>
+    </r>
+  </si>
+  <si>
+    <t>*GPIOA_MODER |= 1 &lt;&lt; 4;</t>
+  </si>
+  <si>
+    <t>Window &gt; Preferences &gt; C/C++ &gt; Editor &gt; Folding &gt; Inactive Preprocessor Branches</t>
+  </si>
+  <si>
+    <t>Collapse #if or #ifdef blocks</t>
+  </si>
+  <si>
+    <t>C concepts &amp; statements</t>
+  </si>
+  <si>
+    <t>Declaration VS Definition</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>int x;              /* x is an integer */</t>
+  </si>
+  <si>
+    <t>int roll_no[];      /* roll_no is an array of integers */</t>
+  </si>
+  <si>
+    <t>specifies the properties of a variable.</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>int x = 10;         /* x is declared as an integer and allocated space and initialized to 10 */</t>
+  </si>
+  <si>
+    <t>int roll_no[100];   /* roll_no is declared as an array of integers, allocated space for 100 integers */</t>
+  </si>
+  <si>
+    <t>declares a variable and causes the storage to be allocated</t>
+  </si>
+  <si>
+    <t>Compare macro, constant, enum</t>
+  </si>
+  <si>
+    <t>Conditional statement</t>
+  </si>
+  <si>
+    <t>Why does writing "if(){" is better than "if()\n{"</t>
+  </si>
+  <si>
+    <t>Be careful with assignment operator: if(x = 5)</t>
+  </si>
+  <si>
+    <t>Because it is equal to if(5)</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>lack of "break" statement</t>
+  </si>
+  <si>
+    <t>program not exit the switch block, and continue process the next code line</t>
+  </si>
+  <si>
+    <t>if(3.21) and if(0.0)</t>
+  </si>
+  <si>
+    <t>int y = (int)0.956 = 0</t>
+  </si>
+  <si>
+    <t>if(6,0) VS if(0,6)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When there is/are comma operator in if statement,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> compiler ONLY choose the last condition object</t>
+    </r>
+  </si>
+  <si>
+    <t>if(funcA())</t>
+  </si>
+  <si>
+    <t>?: or ternary statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> z = a &gt; b ? a : b;</t>
+  </si>
+  <si>
+    <t>equal to if(a&gt;b) then z = a, else z = b</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not sure about operator precedence, write like this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z = ((a &gt; b)? a : b);</t>
+    </r>
+  </si>
+  <si>
+    <t>funcA return void =&gt; compile error</t>
+  </si>
+  <si>
+    <t>funcA return a number =&gt; checking result = true/false</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Use if/else or switch?</t>
+  </si>
+  <si>
+    <t>if/else</t>
+  </si>
+  <si>
+    <t>No ';' after calling funcA()</t>
+  </si>
+  <si>
+    <t>switch (expression)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">expression value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must be an integer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">statement(s) after "switch" and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before the first "case" WON'T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be processed</t>
+    </r>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>the same for "for" statement</t>
+  </si>
+  <si>
+    <t>to avoid placing ';' at the end of line</t>
+  </si>
+  <si>
+    <t>if(){; will cause error</t>
+  </si>
+  <si>
+    <t>if();\n{ compile succeed</t>
+  </si>
+  <si>
+    <t>float number other than 0 =&gt; true</t>
+  </si>
+  <si>
+    <t>Better write like this: if (5 = x) =&gt; compiler will show an error</t>
+  </si>
+  <si>
+    <t>Therefore, if(6,0) =&gt; false; and if(0,6) =&gt; true</t>
+  </si>
+  <si>
+    <t>Scope, storage duration, linkage</t>
+  </si>
+  <si>
+    <t>for variables and functions</t>
+  </si>
+  <si>
+    <t>3 types</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>specify by "static" keyword</t>
+  </si>
+  <si>
+    <t>extern function and global var can be use every program files</t>
+  </si>
+  <si>
+    <t>"extern" for local var =&gt; none linkage</t>
+  </si>
+  <si>
+    <t>"static" for local var =&gt; none linkage</t>
+  </si>
+  <si>
+    <t>local/automatic var</t>
+  </si>
+  <si>
+    <t>specify by "extern" keyword</t>
+  </si>
+  <si>
+    <t>static function static global var can be use within that file only</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Pointer</t>
+  </si>
+  <si>
+    <t>is a pointer which stores address of another pointer</t>
+  </si>
+  <si>
+    <t>syntax: int **pptr = &amp;ptr; (eg)</t>
+  </si>
+  <si>
+    <t>deference the variable: **pptr</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Which case use pointer as a function parameter</t>
+  </si>
+  <si>
+    <t>- the passed parameter need modified</t>
+  </si>
+  <si>
+    <t>- pointer hold address of a data structure (array, structure, union,...) =&gt; can pass more parameter</t>
+  </si>
+  <si>
+    <t>Eg. To pass a string =&gt; just pass its var address (or address of the first element)</t>
+  </si>
+  <si>
+    <t>size of pointer = size of register/word</t>
+  </si>
+  <si>
+    <t>double pointer/pointer to pointer</t>
+  </si>
+  <si>
+    <t>used in 2D array</t>
+  </si>
+  <si>
+    <t>Eg. Array of string: char **c;</t>
+  </si>
+  <si>
+    <t>Deference operator must go before an address (pointer value is an address too)</t>
+  </si>
+  <si>
+    <t>pointer to array vs array of pointers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int (*pa)[] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>differs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than int (*pa)[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>assign a pointer value to another pointer</t>
+  </si>
+  <si>
+    <t>same type =&gt; ok</t>
+  </si>
+  <si>
+    <t>different type =&gt; warning</t>
+  </si>
+  <si>
+    <t>Deference an uninitialized pointer =&gt;  warning</t>
+  </si>
+  <si>
+    <t>int arr[3]; int *ptr = arr; // pointer to an array. The array name itself is a pointer too</t>
+  </si>
+  <si>
+    <t>int (*pa)[3]; // pa is a pointer to an array of three</t>
+  </si>
+  <si>
+    <t>int (*pa)[]  =&gt; pa points to an  array with any size</t>
+  </si>
+  <si>
+    <t>pointer-to-int = pointer-to-char</t>
+  </si>
+  <si>
+    <t>const pointer VS pointer to cost VS const pointer to const</t>
+  </si>
+  <si>
+    <t>const int *ptr;</t>
+  </si>
+  <si>
+    <t>int * const ptr;</t>
+  </si>
+  <si>
+    <t>const int * const ptr;</t>
+  </si>
+  <si>
+    <t>a constant pointer, which stores address of a constant</t>
+  </si>
+  <si>
+    <t>a constant pointer, which stores address of a integer variable</t>
+  </si>
+  <si>
+    <t>Assign a normal variable to a point-to-constant pointer</t>
+  </si>
+  <si>
+    <t>=&gt;Usage: declare a function with that kind of pointer to prevent modify the passing variable</t>
+  </si>
+  <si>
+    <t>Where to place declaration and definition: in header or source file?</t>
+  </si>
+  <si>
+    <t>https://www.sanfoundry.com/c-tutorials-concept-pointer-compatibility-programming/</t>
+  </si>
+  <si>
+    <t>=&gt; Modify bydeference the pointer: cannot change that variable value</t>
+  </si>
+  <si>
+    <t>point to constant VS regular/normal pointer</t>
+  </si>
+  <si>
+    <t>pointer to constant: always cannot modify by deference, even when it point to non-constant</t>
+  </si>
+  <si>
+    <t>regular/normal pointer: always can modify by deference, even when it point to a constant (compiler often shows warning)</t>
+  </si>
+  <si>
+    <t>NULL pointer</t>
+  </si>
+  <si>
+    <t>Why should init pointer to NULL?</t>
+  </si>
+  <si>
+    <t>To prevent the case when uninit pointer have unknown address</t>
+  </si>
+  <si>
+    <t>syntax: int *ptr = 0; // ptr points to nowhere, exactly it point to address 0x00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; Best practice to init a pointer at the beginning, and check if it not NULL when deference</t>
+  </si>
+  <si>
+    <t>Pointer operation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why "++*ptr;" cause no error while "++*ptr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 32;" cause error</t>
+    </r>
+  </si>
+  <si>
+    <t>In "++*ptr = 32;", the expression "++*ptr" is not a lvalue</t>
+  </si>
+  <si>
+    <t>In "++*ptr;" ++*ptr is treated as ++(*ptr) =&gt; This is just a regular operation: deference the value of ptr, then increment that value</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Pointer Arithmetic in C - Sanfoundry</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>Storage class =&gt; define scope and duration, also storage place</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Storage in</t>
+  </si>
+  <si>
+    <t>Initial value</t>
+  </si>
+  <si>
+    <t>Linkage ~ scope</t>
+  </si>
+  <si>
+    <t>within block</t>
+  </si>
+  <si>
+    <t>end of block</t>
+  </si>
+  <si>
+    <t>end of program</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>data segment</t>
+  </si>
+  <si>
+    <t>CPU register</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>multiple files</t>
+  </si>
+  <si>
+    <t>In function, why "static" can be used for auto variables but parameters</t>
+  </si>
+  <si>
+    <t>to do correct behaviour in recursive function: using the same static parameter in recursive function may lead to wrong behaviour</t>
+  </si>
+  <si>
+    <t>to avoid wasting memory: if many difference functions are called just once, then it will take a lot of memory for static parameters</t>
+  </si>
+  <si>
+    <t>* In fact, function variable and parameter are treated almost the same. Depend on purpose, decide to add static keyword to function variable or not.</t>
+  </si>
+  <si>
+    <t>* Compiler not allow parameter to be static</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Recursive function run may cause stack overflow if recursion to much</t>
+  </si>
+  <si>
+    <t>Recusion VSI iteration/loop</t>
+  </si>
+  <si>
+    <t>Some cases recursion is less efficient, but some cases more</t>
+  </si>
+  <si>
+    <t>Recursion ~ loop</t>
+  </si>
+  <si>
+    <t>has the condition to end, and an adjustment operation</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">arr[2] is same as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(arr + 2)</t>
+    </r>
+  </si>
+  <si>
+    <t>"[]" is subscript operator, higther precedence than deference "*" operator</t>
+  </si>
+  <si>
+    <t>increment/decrement</t>
+  </si>
+  <si>
+    <t>int *ptr; ptr++;</t>
+  </si>
+  <si>
+    <r>
+      <t>after increment, value of ptr increase (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1* sizeof(int))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">array name is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant pointer: cannot change its value (address it points to)</t>
+    </r>
+  </si>
+  <si>
+    <t>arr[3] same as 3[arr]</t>
+  </si>
+  <si>
+    <t>arr[3] same as *(arr + 3) same as *(3 + arr) same as 3[arr]</t>
+  </si>
+  <si>
+    <t>to pass an array to a function, just pass the array address as a pointer to minimize needed resource</t>
+  </si>
+  <si>
+    <t>specify the array address as "const" to prevent any modification on array</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Difference between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">char name1[] = "hello"; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> char *name2 = "hello";</t>
+    </r>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>name2 is a pointer points to a string literal ("hello")</t>
+  </si>
+  <si>
+    <t>Muldimentional array init</t>
+  </si>
+  <si>
+    <t>int hawks[2][3] = {1,2,3,4,5,6};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">is treated as int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hawks[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3] = {{1,2,3},{4,5,6}};</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass 2D array as function parameter</t>
+  </si>
+  <si>
+    <t>Array of pointer</t>
+  </si>
+  <si>
+    <t>void func(int (*ptr)[5]); // ptr is a pointer to an array whose each element is an array of 5</t>
+  </si>
+  <si>
+    <t>sizeof array</t>
+  </si>
+  <si>
+    <t>char msg[] = {'h','i'}; // sizeof = 2</t>
+  </si>
+  <si>
+    <t>char *car[] = {"Suzuki","Toyota"};</t>
+  </si>
+  <si>
+    <t>pointer to array: eg. char (*car)[];</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">char msg[] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"hi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; // sizeof = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3, and size of "" (empty string) is 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Access struct member. Eg. Struct "student" with "name" member</t>
+  </si>
+  <si>
+    <t>struct self reference</t>
+  </si>
+  <si>
+    <t>struct Node { struct Node new;}</t>
+  </si>
+  <si>
+    <t>=&gt; error: incomplete type</t>
+  </si>
+  <si>
+    <t>struct Node { struct Node *new;}</t>
+  </si>
+  <si>
+    <t>=&gt; no error</t>
+  </si>
+  <si>
+    <t>mutually dependant structure</t>
+  </si>
+  <si>
+    <t>struct A {struct B b;} struct B {struct A a;}</t>
+  </si>
+  <si>
+    <t>=&gt; error, B is incomplete type. Since when read struct A definition, compiler does not know about B</t>
+  </si>
+  <si>
+    <t>But if a and b are pointer =&gt; no error</t>
+  </si>
+  <si>
+    <r>
+      <t>struct_ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">name OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_ptr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">name OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>p-&gt;x[2] same as *(p-&gt;x + 2)</t>
+  </si>
+  <si>
+    <t>struct pointer</t>
+  </si>
+  <si>
+    <t>struct padding</t>
+  </si>
+  <si>
+    <t>order of struct member: char, int, char =&gt; takes 12 bytes</t>
+  </si>
+  <si>
+    <t>=&gt; waste memory</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get offset of member by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offsetof(struct A, struct_member)</t>
+    </r>
+  </si>
+  <si>
+    <t>this function locates in stddef.h</t>
+  </si>
+  <si>
+    <t>=&gt; solution: rearrange order of member var</t>
+  </si>
+  <si>
+    <t>Use pointer as parameter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an array or structure from a function =&gt; better pass the pointer of the destination array/ structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">want to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pass an array or structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a function =&gt; better pass the pointer to that array/structure</t>
+    </r>
+  </si>
+  <si>
+    <t>Bit field</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>sizeof union</t>
+  </si>
+  <si>
+    <t>= sizeof largest member</t>
+  </si>
+  <si>
+    <t>In some cases, depend on padding</t>
+  </si>
+  <si>
+    <t>Eg. union {char a[5]; int b;} =&gt; union has size = 8</t>
+  </si>
+  <si>
+    <t>only the first member of union can be initialized and same memory location can be accessed by all members of union but at different times</t>
+  </si>
+  <si>
+    <t>Dynamic memory allocation (DMA)</t>
+  </si>
+  <si>
+    <t>malloc</t>
+  </si>
+  <si>
+    <t>void *malloc(size_t num_of_bytes);</t>
+  </si>
+  <si>
+    <t>void free(void *);</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>use cases</t>
+  </si>
+  <si>
+    <t>when needed memory is unknown at compile time</t>
+  </si>
+  <si>
+    <t>read any file: do not know the file size when compile</t>
+  </si>
+  <si>
+    <t>in a employee database, add and remove employee infor</t>
+  </si>
+  <si>
+    <t>calloc</t>
+  </si>
+  <si>
+    <t>realloc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">because malloc() returns a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">void pointer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; need to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cast pointer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the assigned pointer var</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calloc() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initializes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the block with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zeroes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">malloc() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initializes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the block with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garbage value</t>
+    </r>
+  </si>
+  <si>
+    <t>void *realloc(void *ptr, size_t num_of_bytes);</t>
+  </si>
+  <si>
+    <t>void *calloc(size_t num_of_items, size_t each_item_size)</t>
+  </si>
+  <si>
+    <t>change size of existing allocated block</t>
+  </si>
+  <si>
+    <t>the return pointer has different value than parameter pointer</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sometimes allocate failed (due to lack of RAM) =&gt; malloc()/calloc()/realloc() return NULL pointer</t>
+  </si>
+  <si>
+    <t>Error cases</t>
+  </si>
+  <si>
+    <t>Not checking NULL pointer before accessing to allocated block</t>
+  </si>
+  <si>
+    <t>call free() more than once</t>
+  </si>
+  <si>
+    <t>Not update the pointer after realloc()</t>
+  </si>
+  <si>
+    <t>No specify size to set free, then how program know?</t>
+  </si>
+  <si>
+    <t>When allocated,  the block will get extr a memory for size info =&gt; no need to specify size when free()</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>not know the maximum required memory</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Doubly linked list</t>
+  </si>
+  <si>
+    <t>A linked list that can only be traversed in forward direction</t>
+  </si>
+  <si>
+    <t>struct Node {struct Node *next; int value;}</t>
+  </si>
+  <si>
+    <t>struct Node *head = (struct Node *)malloc(sizeof(struct Node));</t>
+  </si>
+  <si>
+    <t>head-&gt;value = 1; //assign whatever value</t>
+  </si>
+  <si>
+    <t>head-&gt;next = NULL;</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>*order to work on a linked list</t>
+  </si>
+  <si>
+    <t>void traverse(node_t **head) {</t>
+  </si>
+  <si>
+    <t>node_t * current = *head;</t>
+  </si>
+  <si>
+    <t>while (current != NULL) {</t>
+  </si>
+  <si>
+    <t>// Accessing current-&gt;val</t>
+  </si>
+  <si>
+    <t>current = current-&gt;next;</t>
+  </si>
+  <si>
+    <t>}}</t>
+  </si>
+  <si>
+    <t>Insert to start of list</t>
+  </si>
+  <si>
+    <t>Insert to end of list</t>
+  </si>
+  <si>
+    <t>while (current-&gt;next != NULL) {</t>
+  </si>
+  <si>
+    <t>current = current-&gt;next;}</t>
+  </si>
+  <si>
+    <t>initialization a new linked list</t>
+  </si>
+  <si>
+    <t>1. create a new linked list with a node</t>
+  </si>
+  <si>
+    <t>current-&gt;next = (struct Node*) malloc(sizeof(struct Node));</t>
+  </si>
+  <si>
+    <t>current-&gt;next-&gt;val = val;</t>
+  </si>
+  <si>
+    <t>current-&gt;next-&gt;next = NULL;</t>
+  </si>
+  <si>
+    <t>2b. Remove a node from start/end/specific location</t>
+  </si>
+  <si>
+    <t>2. insert a new node to start/end of the list</t>
+  </si>
+  <si>
+    <t>traversing, search</t>
+  </si>
+  <si>
+    <t>A linked list that can only be traversed in 2 directions: forward and backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singly linked list =&gt; regular </t>
+  </si>
+  <si>
+    <t>1. Create a new item and set its value</t>
+  </si>
+  <si>
+    <t>2. Link the new item to point to the head of the list</t>
+  </si>
+  <si>
+    <t>3. Set the head of the list to be our new item</t>
+  </si>
+  <si>
+    <t>1. Move to the end node</t>
+  </si>
+  <si>
+    <t>2. Add a new node and set its value</t>
+  </si>
+  <si>
+    <t>Remove a node</t>
+  </si>
+  <si>
+    <t>From beginning</t>
+  </si>
+  <si>
+    <t>2. Free the head node</t>
+  </si>
+  <si>
+    <t>1. Get the next node that the head points to and save it</t>
+  </si>
+  <si>
+    <t>3. Set the head as the saved node from step 1</t>
+  </si>
+  <si>
+    <t>0. Make sure the list not empty first</t>
+  </si>
+  <si>
+    <t>From end</t>
+  </si>
+  <si>
+    <t>while (current-&gt;next-&gt;next != NULL) {</t>
+  </si>
+  <si>
+    <t>1. traverse to the second last node of list</t>
+  </si>
+  <si>
+    <t>2. Free the last item (current-&gt;next)</t>
+  </si>
+  <si>
+    <t>current-&gt;next = NULL;</t>
+  </si>
+  <si>
+    <t>From specific position</t>
+  </si>
+  <si>
+    <t>3. Update the "next" pointer of last node</t>
+  </si>
+  <si>
+    <t>0. If the list has one item, just remove it</t>
+  </si>
+  <si>
+    <t>1. Move to the node before the node we wish to delete</t>
+  </si>
+  <si>
+    <t>2. Save the node we wish to delete in a temporary pointer</t>
+  </si>
+  <si>
+    <t>3. Set the previous node's next pointer to point to the node after the node we wish to delete</t>
+  </si>
+  <si>
+    <t>4. Delete the node using the temporary pointer</t>
+  </si>
+  <si>
+    <t>Function pointer</t>
+  </si>
+  <si>
+    <t>Callback function</t>
+  </si>
+  <si>
+    <t>https://www.beningo.com/embedded-basics-callback-functions/</t>
+  </si>
+  <si>
+    <t>Jump table</t>
+  </si>
+  <si>
+    <t>is a special array of pointer-to-functions</t>
+  </si>
+  <si>
+    <t>=&gt; an array of 3 function pointer of int f(int, int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg. int (*fptr[3])(int, int) </t>
+  </si>
+  <si>
+    <t>call by fptr[0](3, 2) for instance</t>
+  </si>
+  <si>
+    <t>Storing in an array, all function pointer must have the same type</t>
+  </si>
+  <si>
+    <t>a pointer to constant, which stores address of a constant</t>
+  </si>
+  <si>
+    <t>const int *ptr = int const *ptr</t>
+  </si>
+  <si>
+    <t>printf("%c", "abc"[1]);  // print 'b'</t>
+  </si>
+  <si>
+    <t>C preprocessing</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>3 types of macro</t>
+  </si>
+  <si>
+    <t>object-like</t>
+  </si>
+  <si>
+    <t>function-like</t>
+  </si>
+  <si>
+    <t>Including guard</t>
+  </si>
+  <si>
+    <t>???variable-like</t>
+  </si>
+  <si>
+    <t>to prevent include file multiple times</t>
+  </si>
+  <si>
+    <t>to prevent nested including files</t>
+  </si>
+  <si>
+    <t>#if, #elif, #else, #endif</t>
+  </si>
+  <si>
+    <t>#if, #elif must use with a constant expression</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>What is ## Preprocessor Directive in C? - Sanfoundry</t>
+  </si>
+  <si>
+    <t>#pragma</t>
+  </si>
+  <si>
+    <t>#error</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To write </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multiple lines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>macro, add '\' at the end</t>
+    </r>
+  </si>
+  <si>
+    <t>Show error when compile</t>
+  </si>
+  <si>
+    <t># (or null #)</t>
+  </si>
+  <si>
+    <t>ignored by preprocessor</t>
+  </si>
+  <si>
+    <t>each compiler has a typical #pragma set</t>
+  </si>
+  <si>
+    <t>Common ARM #pragma (https://developer.arm.com/documentation/dui0491/i/Compiler-specific-Features/Pragmas)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#pragma O[num]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with num from 0 to 3 =&gt; change optimization level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#pragma pack(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with n is 1/2/4/8 =&gt; set align size for structure</t>
+    </r>
+  </si>
+  <si>
+    <t>create a week alias</t>
+  </si>
+  <si>
+    <t>weak variable =&gt; another var definition can be replaced a weak var definition</t>
+  </si>
+  <si>
+    <t>(usually use in STM32 lib) weak function =&gt; another function definition can be replaced a weak function definition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__attribute__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("name")))</t>
+    </r>
+  </si>
+  <si>
+    <t>place code in the section "name" of the program binary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#pragma weak [symbol]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">__weak [symbol] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  extern int functionX(int b) __attribute__((weak));</t>
+    </r>
+  </si>
+  <si>
+    <t>File I/O</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>1. Open</t>
+  </si>
+  <si>
+    <t>FILE *fp;</t>
+  </si>
+  <si>
+    <t>2. Process</t>
+  </si>
+  <si>
+    <t>3. Close</t>
+  </si>
+  <si>
+    <t>fp = fopen("file_name", "r");</t>
+  </si>
+  <si>
+    <t>FILE *fopen( const char * filename, const char * mode );</t>
+  </si>
+  <si>
+    <t>mode: r-read, w-write, a- write in appending mode,...</t>
+  </si>
+  <si>
+    <t>mode for binary: rb-read, wb-write, ab- write in appending mode,...</t>
+  </si>
+  <si>
+    <t>fclose(fp) // fclose() returns zero on success,</t>
+  </si>
+  <si>
+    <t>write to file</t>
+  </si>
+  <si>
+    <t>int fputc( int c, FILE *fp );</t>
+  </si>
+  <si>
+    <t>read a file</t>
+  </si>
+  <si>
+    <t>int fputs( const char *s, FILE *fp );</t>
+  </si>
+  <si>
+    <t>int fgetc( FILE * fp );</t>
+  </si>
+  <si>
+    <t>char *fgets( char *buf, int n, FILE *fp );</t>
+  </si>
+  <si>
+    <t>memset</t>
+  </si>
+  <si>
+    <t>memcpy</t>
+  </si>
+  <si>
+    <t>void *memset(void *str, int char, size_t n)</t>
+  </si>
+  <si>
+    <t>void *memcpy(void *dest_str, const void *src_str, size_t n)</t>
+  </si>
+  <si>
+    <t>Copy n bytes from src to dest</t>
+  </si>
+  <si>
+    <t>Set n byte of str as &lt;char&gt;</t>
+  </si>
+  <si>
+    <t>memmove</t>
+  </si>
+  <si>
+    <t>void *memmove(void *dest, void *src, size_t count);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Addition to memcpy(): add flexibility of dealing with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overlapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blocks.</t>
+    </r>
+  </si>
+  <si>
+    <t>memset, memcpy, memmove</t>
+  </si>
+  <si>
+    <t>*overlap</t>
+  </si>
+  <si>
+    <t>src and dest are just different position on the same pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=&gt; memcpy may cause wrong behavior, but no problem with memmove </t>
+  </si>
+  <si>
+    <t>input pin: active low and active high</t>
+  </si>
+  <si>
+    <t>active low</t>
+  </si>
+  <si>
+    <t>active high</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GND &lt;--&gt; button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;---&gt; GPIO pin &lt;--&gt; resistor (10K) &lt;--&gt; Vcc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GND &lt;--&gt; resistor (10K) &lt;---&gt; GPIO pin &lt;--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button &lt;--&gt; Vcc</t>
+    </r>
+  </si>
+  <si>
+    <t>output pin: active low and active high</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vcc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;--&gt; LED &lt;--&gt; GPIO pin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;--&gt; LED &lt;--&gt; GPIO pin</t>
+    </r>
+  </si>
+  <si>
+    <t>3 states of input pin</t>
+  </si>
+  <si>
+    <t>LOW, HIGH and floating (Hi-Z)</t>
+  </si>
+  <si>
+    <t>Floating: current fluctuate from LOW to HIGH</t>
+  </si>
+  <si>
+    <t>solved by connect to an internal/external pull-up or pull-down resistor</t>
+  </si>
+  <si>
+    <t>=&gt; leak current, and noise when read input value</t>
+  </si>
+  <si>
+    <t>push-pull: enable both NMOS and PMOS. Two possible values: HIGH and LOW</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">open-drain: enable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NMOS only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Two possible values: HIGH and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>floating/ Hi-Z</t>
+    </r>
+  </si>
+  <si>
+    <t>SHOULD connect to a pull-up resistor to solve floating value issue</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>UART vs USART</t>
+  </si>
+  <si>
+    <t>asynchronous mode</t>
+  </si>
+  <si>
+    <t>synchronous mode</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>asynchronous vs synchronous mode</t>
+  </si>
+  <si>
+    <t>asynchronous mode: just TX and RX line</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">synchronous mode: beside TX and RX line, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLOCK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line is required</t>
+    </r>
+  </si>
+  <si>
+    <t>UART pin</t>
+  </si>
+  <si>
+    <t>CTS: set this pin value to 0 =&gt; start transmitting data</t>
+  </si>
+  <si>
+    <t>RTS: set this pin value to 0 =&gt; trigger external device transmit data</t>
+  </si>
+  <si>
+    <t>Connect 2 UART devices</t>
+  </si>
+  <si>
+    <t>Basically only 2 pin needed: RX and TX</t>
+  </si>
+  <si>
+    <t>RX of a device connects to TX of the other</t>
+  </si>
+  <si>
+    <t>In hardware flow control UART, CTS of a device connects to RTS of the other</t>
+  </si>
+  <si>
+    <t>UART frame</t>
+  </si>
+  <si>
+    <t>0,data_frame,1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Parity bit</t>
+  </si>
+  <si>
+    <t>Is a part of data frame used for error dectection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Even</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parity: value is 0 or 1 to make the number of '1' of data frame (including parity bit) a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>even</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Odd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parity: value is 0 or 1 to make the number of '1' of data frame (including parity bit) a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>odd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number </t>
+    </r>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>0.5 and 1.5 stop bits</t>
+  </si>
+  <si>
+    <t>In hardware flow control UART, need 3 or 4 pins: RX, TX, CTS (Clear to Send) or/and RTS (Request to Send)</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>Handle to send data with parity on: 8bit or 9bit data frame</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>Uderstanding baud rate</t>
+  </si>
+  <si>
+    <t>Oversampling mode =&gt; sampling rate/frequency of receive line based on clock speed</t>
+  </si>
+  <si>
+    <t>oversampling by 8: every 8 clocks =&gt; make a sample</t>
+  </si>
+  <si>
+    <t>oversampling by 16: every 16 clocks =&gt; make a sample</t>
+  </si>
+  <si>
+    <t>Baud rate calculation in STM32 based on oversampling by 8 or 16 bit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">oversampling by 16: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is the default mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: baud rate = fCLK / USART division</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">oversampling by 8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max configured baud rate is higher (can be doubled) than over16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : baud rate = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fCLK / USART division</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*Cons of over8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more clock deviation (lệch) than over16</t>
+    </r>
+  </si>
+  <si>
+    <t>*STM32</t>
+  </si>
+  <si>
+    <t>*general formula</t>
+  </si>
+  <si>
+    <t>baud rate =  fCLK / (8 * USART division) // 8 or 16 is the sampling rate</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>USART interrupt</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3 for transmission</t>
+  </si>
+  <si>
+    <t>At least 7 for reception</t>
+  </si>
+  <si>
+    <t>Idle Line detection, Receive data register not empty (RXNE)</t>
+  </si>
+  <si>
+    <t>Clear to Send, Transmission Complete (TC) and Transmit data Register empty (TXE) interrupt</t>
+  </si>
+  <si>
+    <t>Parity error: a parity error occurs in receiver mode</t>
+  </si>
+  <si>
+    <t>For error: Overrun error (ORE), Parity error (PE), Noise Flag (NF), Framing Error (FE), Receiver Timeout (RTOF)</t>
+  </si>
+  <si>
+    <t>Common USART error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The more stop bits used, the stabler data (prevent data loss) become for higher baud rate. </t>
+  </si>
+  <si>
+    <t>Framing error:  the stop bit is not recognized on reception at the expected time, following either a de-synchronization or excessive noise</t>
+  </si>
+  <si>
+    <r>
+      <t>Overrun:  a character is received when RXNE has not been reset. RDR register content is not lost but the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shift register is overwritten</t>
+    </r>
+  </si>
+  <si>
+    <t>*IDLE frame</t>
+  </si>
+  <si>
+    <t>*BREAK frame</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">entire frame of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“0”s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (including start bit and stop bit) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 start bit and  1 stop bit of next frame</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">entire frame of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“1”s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (including start bit and stop bit)</t>
+    </r>
+  </si>
+  <si>
+    <t>"0": start bit</t>
+  </si>
+  <si>
+    <t>"1": stop bit</t>
+  </si>
+  <si>
+    <t>MSB and LSB</t>
+  </si>
+  <si>
+    <t>Mode: full-duplex, half-dulplex, simplex</t>
+  </si>
+  <si>
+    <t>- Full-duplex: 2 paralel lines of transmission: MISO-MISO and MOSI-MOSI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Half-duplex: 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bidirectional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data line</t>
+    </r>
+  </si>
+  <si>
+    <t>Each MOSI and MISO pin can be bidirectional - can be used for transmission and reception</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>No need to use NSS pin of SPI for slave selection -&gt; a GPIO can be used instead</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">master's MOSI connects to slave's MISO though a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resistor</t>
+    </r>
+  </si>
+  <si>
+    <t>other MOSI and MISO pins are set free</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Simplex: 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unidirectional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data line: only for transmission or reception</t>
+    </r>
+  </si>
+  <si>
+    <t>Clock phase and clock polarity</t>
+  </si>
+  <si>
+    <t>CPOL = 0 =&gt; low-level idle state for SCK</t>
+  </si>
+  <si>
+    <t>CPOL = 1 =&gt; high-level idle state for SCK</t>
+  </si>
+  <si>
+    <t>- Clock polarity: controls the idle state value of the Clock when no data is being transferred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Clock phase: select first/second clock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of SCK to begin the SPI frame</t>
+    </r>
+  </si>
+  <si>
+    <t>SPI data frame</t>
+  </si>
+  <si>
+    <t>- No start bit or stop bit</t>
+  </si>
+  <si>
+    <t>- A frame size (is right-aligned): from 4 to 16 bits</t>
+  </si>
+  <si>
+    <t>- Choose to transfer MSB or LSB</t>
+  </si>
+  <si>
+    <t>SPI TXFIFO, RXFIFO</t>
+  </si>
+  <si>
+    <t>reading SPIx_DR register returns the oldest value stored in RXFIFO that has not been read yet</t>
+  </si>
+  <si>
+    <t>writing to SPIx_DR stores the written data in the TXFIFO at the end of a send queue</t>
+  </si>
+  <si>
+    <t>- FIFOs help SPI work in a continuous flow, and prevents overruns when the data frame size is short</t>
+  </si>
+  <si>
+    <t>+ There is threshold value (1/4 full, 1/2 full) for RXFIFO fullness -&gt; trigger RXNE event when threshold is reached</t>
+  </si>
+  <si>
+    <t>+ TXFIFO has not threshold value -&gt; trigger TXE event when the TXFIFO level is &lt;= 1/2 its capacity</t>
+  </si>
+  <si>
+    <t>Multi master/ slave</t>
+  </si>
+  <si>
+    <t>- 1 master - multi slave</t>
+  </si>
+  <si>
+    <t>no need CS/NSS pin =&gt; use GPIO pins to select slave</t>
+  </si>
+  <si>
+    <t>- multi master - 1/multi slave</t>
+  </si>
+  <si>
+    <t>all masters stay in slave mode =&gt; switch to master mode when that node wants to take control</t>
+  </si>
+  <si>
+    <t>multiple node want to take control (become master) at the same time =&gt; take one request, postpone the others</t>
+  </si>
+  <si>
+    <t>1 stop bit time = 8 clock in over8 and 16 clock in over16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">therefore, 0.5 stop bit = 4 clock in over 8 and and 8 </t>
+  </si>
+  <si>
+    <t>data frame: 8 or 9 bits, including optional MSB (left most) parity bit</t>
+  </si>
+  <si>
+    <t>Both USART_TDR (transmit data) and USART_RDR (receive data) register have 9 bits block</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Take note when enable parity on 8bit data frame, the sending data must be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7-bit value (max value is 127 ~ last character of ASCII table) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to prevent sending wrong data</t>
+    </r>
+  </si>
+  <si>
+    <t>* Basically without oversampling, on every clock, a bit is transmitted</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Internal VS external pull-up/pull-down resistors</t>
+  </si>
+  <si>
+    <t>internal: on-chip, external: outside the chip</t>
+  </si>
+  <si>
+    <t>pull-up resistor: connect from pin to Vcc; pull-down resister: connect from pin to GND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">be used to change a sine wave into a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>square wave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, clean up noisy signals, and convert slow edges to fast edges</t>
+    </r>
+  </si>
+  <si>
+    <t>Schmitt trigger is enabled in all pin mode except analog, because analog don't use digital values</t>
+  </si>
+  <si>
+    <t>Shortcuts/ settings</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1656,11 +4307,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="LMRoman10-Regular-Identity-H"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1728,6 +4374,13 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1755,7 +4408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1815,47 +4468,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1876,16 +4608,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1913,7 +4663,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1921,74 +4673,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2005,10 +4689,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2287,10 +4971,2085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B33"/>
+  <dimension ref="A1:J351"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201:A203"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="D5" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="D6" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="D9" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="D10" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="32"/>
+      <c r="D12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32"/>
+      <c r="B13" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="F19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="F20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="E21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="E23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="E24" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="E26" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="2"/>
+      <c r="E29" s="39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="2"/>
+      <c r="E30" s="40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="2"/>
+      <c r="E32" s="40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="D33" s="2"/>
+      <c r="E33" s="40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="D34" s="2"/>
+      <c r="E34" s="39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36" s="2"/>
+      <c r="E36" s="39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37" s="2"/>
+      <c r="E37" s="39"/>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38" s="2"/>
+      <c r="E38" s="39"/>
+      <c r="F38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="D40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="E41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="D42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="D43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="E44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="32"/>
+      <c r="D46" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="32"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="32"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="C53" s="42"/>
+      <c r="D53" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="I53" s="49"/>
+      <c r="J53" s="50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="C54" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="C55" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="I55" s="44"/>
+      <c r="J55" s="45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="C56" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="C57" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="C60" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="C61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="D62" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="E63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="E64" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="E65" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="D66" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="E67" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="E68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="E69" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="D70" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="E71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="C73" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="D74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="D76" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="D77" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="32"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="32"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="32"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="C84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="C85" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="C86" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="C87" s="2"/>
+      <c r="E87" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="C88" s="2"/>
+      <c r="E88" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" s="2"/>
+      <c r="E89" s="22"/>
+      <c r="F89" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="C90" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E90" s="22"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="C92" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="D93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="D94" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="C95" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="D96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="C98" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="D99" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="D100" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="C101" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="D102" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="C103" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="D104" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="C105" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="D106" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="E107" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="E108" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="D109" t="s">
+        <v>406</v>
+      </c>
+      <c r="E109" s="22"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="E110" s="41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="E111" s="41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="C113" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="C114" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="D116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="E117" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="32"/>
+      <c r="B118" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="32"/>
+      <c r="C119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="32"/>
+      <c r="C120" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="32"/>
+      <c r="D121" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="32"/>
+      <c r="C122" s="31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="32"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="32"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="32"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="C127" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="D128" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="D129" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="D130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="32"/>
+      <c r="B131" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="32"/>
+      <c r="C132" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="32"/>
+      <c r="D133" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="32"/>
+      <c r="D134" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="32"/>
+      <c r="C135" s="31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="32"/>
+      <c r="C136" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="32"/>
+      <c r="D137" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="32"/>
+      <c r="E138" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="51"/>
+      <c r="B139" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="51"/>
+      <c r="C140" s="32" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="51"/>
+      <c r="D141" s="31" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="51"/>
+      <c r="C142" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="51"/>
+      <c r="D143" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="51"/>
+      <c r="D144" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="51"/>
+      <c r="D145" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="51"/>
+      <c r="E146" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="51"/>
+      <c r="E147" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="51"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>418</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="C150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="C151" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="D152" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="C153" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="D154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="C156" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="C157" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>450</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="C159" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="C160" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="B161" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="C162" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="B163" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="C164" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="32"/>
+      <c r="B165" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="32"/>
+      <c r="C166" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="32"/>
+      <c r="C167" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="B168" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="C169" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="D170" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="B171" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="C172" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="B173" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="C174" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="C175" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="B176" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="C177" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="C178" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="B179" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="B181" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="C182" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="C183" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="B184" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="C185" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="D186" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="C187" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="D188" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="B189" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="C190" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="D191" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="D192" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="B193" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="C194" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="B195" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="C196" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="D197" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="D198" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="C199" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="D200" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="32"/>
+      <c r="B201" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="32"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="32"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="B205" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="C206" s="22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="C207" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="D208" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="B209" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="51" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="51"/>
+      <c r="B211" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="51"/>
+      <c r="C212" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="51"/>
+      <c r="D213" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="51"/>
+      <c r="D214" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="51"/>
+      <c r="D215" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="B216" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="C217" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="D218" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="D219" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="B220" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="C221" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="D222" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="D223" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="B224" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="C225" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="D226" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="B227" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="C228" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="D229" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="D230" s="2"/>
+      <c r="E230" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="B231" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="C232" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="C233" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="D234" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="D235" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="D236" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C237" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="D238" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="C239" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="D240" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5">
+      <c r="D241" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5">
+      <c r="D242" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5">
+      <c r="C243" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5">
+      <c r="D244" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5">
+      <c r="E245" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5">
+      <c r="E246" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="247" spans="3:5">
+      <c r="E247" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="248" spans="3:5">
+      <c r="D248" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="249" spans="3:5">
+      <c r="E249" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="250" spans="3:5">
+      <c r="E250" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="251" spans="3:5">
+      <c r="E251" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="252" spans="3:5">
+      <c r="E252" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="253" spans="3:5">
+      <c r="E253" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5">
+      <c r="E254" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5">
+      <c r="D255" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5">
+      <c r="E256" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="257" spans="4:6">
+      <c r="F257" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6">
+      <c r="F258" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="259" spans="4:6">
+      <c r="E259" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6">
+      <c r="F260" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="261" spans="4:6">
+      <c r="F261" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6">
+      <c r="F262" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="263" spans="4:6">
+      <c r="D263" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="264" spans="4:6">
+      <c r="E264" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="265" spans="4:6">
+      <c r="E265" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="266" spans="4:6">
+      <c r="E266" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="267" spans="4:6">
+      <c r="D267" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="268" spans="4:6">
+      <c r="E268" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="269" spans="4:6">
+      <c r="F269" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="270" spans="4:6">
+      <c r="F270" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="271" spans="4:6">
+      <c r="F271" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="272" spans="4:6">
+      <c r="F272" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="E273" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="F274" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="F275" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="G276" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="G277" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="F278" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="F279" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="G280" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="E281" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="F282" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="F283" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="F284" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="F285" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7">
+      <c r="C287" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="D288" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="C289" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="D290" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="32"/>
+      <c r="B291" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="B293" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="C294" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="D295" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="D296" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="D297" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="B298" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C298" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="B299" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="C300" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="C301" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="B302" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="C303" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="B304" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6">
+      <c r="C305" s="31" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6">
+      <c r="B306" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6">
+      <c r="C307" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6">
+      <c r="B308" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6">
+      <c r="C309" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6">
+      <c r="B310" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6">
+      <c r="C311" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6">
+      <c r="C312" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6">
+      <c r="D313" s="52" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6">
+      <c r="D314" s="52" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6">
+      <c r="D315" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6">
+      <c r="E316" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6">
+      <c r="F317" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6">
+      <c r="F318" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6">
+      <c r="B319" s="52" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6">
+      <c r="B320"/>
+      <c r="C320" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="B323" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="C324" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="D325" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="D326" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="E327" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="F328" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="G329" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="C330" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="D331" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="E332" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="E333" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="D334" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="E335" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="E336" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5">
+      <c r="C337" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5">
+      <c r="D338" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5">
+      <c r="B339" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5">
+      <c r="C340" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5">
+      <c r="D341" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5">
+      <c r="E342" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5">
+      <c r="C343" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5">
+      <c r="D344" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5">
+      <c r="E345" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5">
+      <c r="C346" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5">
+      <c r="D347" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5">
+      <c r="E348" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="C349" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5">
+      <c r="D350" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="E351" s="22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C122" r:id="rId1"/>
+    <hyperlink ref="C135" r:id="rId2" display="https://www.sanfoundry.com/c-tutorials-different-pointer-operations/"/>
+    <hyperlink ref="D141" r:id="rId3"/>
+    <hyperlink ref="C305" r:id="rId4" display="https://www.sanfoundry.com/c-tutorials-preprocessor-directives/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="22" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="22"/>
+      <c r="D6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="22"/>
+      <c r="D7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="22" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="22" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" s="22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" s="22" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="22" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="22" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="22" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="22" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" t="s">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B37"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2304,7 +7063,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2340,176 +7099,191 @@
     </row>
     <row r="8" spans="1:2" ht="71.25">
       <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="142.5">
       <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.5">
       <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="42.75">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="114">
       <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>111</v>
+        <v>67</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.5">
-      <c r="A21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>90</v>
+      <c r="A21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="71.25">
       <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>175</v>
+        <v>72</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="42.75">
       <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="85.5">
       <c r="A25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="42.75">
       <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="42.75">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="42.75">
       <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>91</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="114">
       <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>94</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="B33" s="1"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>735</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2517,12 +7291,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2754,190 +7528,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
+    <col min="1" max="1" width="51.625" customWidth="1"/>
     <col min="2" max="2" width="73.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="99.75">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5">
+      <c r="A9" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="99.75">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="I10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2963,285 +7637,285 @@
     </row>
     <row r="2" spans="1:11">
       <c r="F2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>251</v>
+        <v>222</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="B4" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="B6" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="B8" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="I9" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="B10" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="B12" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="C17" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28.5">
       <c r="C25" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="36" t="s">
-        <v>276</v>
+      <c r="C27" s="35" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="35" t="s">
-        <v>270</v>
+      <c r="C29" s="34" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="C33" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="C34" s="35" t="s">
-        <v>270</v>
+      <c r="C34" s="34" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="C35" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="C36" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="C37" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="B42" s="35" t="s">
-        <v>280</v>
+      <c r="B42" s="34" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +7928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
@@ -3262,24 +7936,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="31"/>
+      <c r="A2" s="30"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="31"/>
+      <c r="A4" s="30"/>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3287,27 +7961,27 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="32" t="s">
-        <v>216</v>
+      <c r="C9" s="31" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3315,364 +7989,364 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="E13" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="E14" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="D18" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="D20" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="D22" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="D24" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="D26" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="D27" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="E28" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="E29" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="E30" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="D31" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="E32" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="E33" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="D34" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="E35" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="E36" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="E37" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="C38" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="D39" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="C40" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="D41" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="C42" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="D43" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="C44" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="33"/>
+      <c r="B53" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="32"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33" t="s">
-        <v>225</v>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="C60" s="33"/>
+      <c r="C60" s="32"/>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="C62" s="33"/>
+      <c r="C62" s="32"/>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="C64" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="C66" s="33"/>
+      <c r="C66" s="32"/>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="C68" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="B71" s="37" t="s">
-        <v>282</v>
+      <c r="B71" s="36" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="B72" s="37"/>
+      <c r="B72" s="36"/>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="B73" s="37" t="s">
-        <v>283</v>
+      <c r="B73" s="36" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="B74" s="37"/>
+      <c r="B74" s="36"/>
       <c r="C74" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="B75" s="37"/>
+      <c r="B75" s="36"/>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="B76" s="37" t="s">
-        <v>284</v>
+      <c r="B76" s="36" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="C77" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="C78" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="C84" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="C85" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +8362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -3696,167 +8370,167 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="37" t="s">
-        <v>298</v>
+      <c r="B2" s="36" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="37" t="s">
-        <v>299</v>
+      <c r="B3" s="36" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="37" t="s">
-        <v>300</v>
+      <c r="B4" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="37" t="s">
-        <v>301</v>
+      <c r="B5" s="36" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="37" t="s">
-        <v>303</v>
+      <c r="B8" s="36" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="C14" s="38" t="s">
-        <v>312</v>
+      <c r="C14" s="37" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="C15" s="38" t="s">
-        <v>304</v>
+      <c r="C15" s="37" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
-      <c r="C16" s="38" t="s">
-        <v>305</v>
+      <c r="C16" s="37" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="C17" s="38" t="s">
-        <v>306</v>
+      <c r="C17" s="37" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
-      <c r="C18" s="38" t="s">
-        <v>307</v>
+      <c r="C18" s="37" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="C19" s="38" t="s">
-        <v>308</v>
+      <c r="C19" s="37" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="38" t="s">
-        <v>309</v>
+      <c r="C20" s="37" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="C21" s="38" t="s">
-        <v>310</v>
+      <c r="C21" s="37" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="C22" s="38" t="s">
-        <v>315</v>
+      <c r="C22" s="37" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="C26" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="C30" s="35" t="s">
-        <v>321</v>
+      <c r="C30" s="34" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="C44" s="35" t="s">
-        <v>328</v>
+      <c r="C44" s="34" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3867,352 +8541,474 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M47"/>
+  <dimension ref="A2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15">
-      <c r="C3" s="16" t="s">
-        <v>136</v>
+      <c r="C3" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="D4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="E5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="E6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="E7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="E8" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="E9" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15">
-      <c r="D12" s="16" t="s">
-        <v>135</v>
+      <c r="D12" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="C13" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15">
-      <c r="D14" s="16" t="s">
-        <v>137</v>
+      <c r="D14" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15">
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15">
-      <c r="D16" s="16" t="s">
-        <v>138</v>
+      <c r="D16" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="D18" s="16"/>
+      <c r="D18" s="15"/>
       <c r="F18" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="D19" s="16"/>
+      <c r="D19" s="15"/>
       <c r="F19" s="4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="D21" s="16" t="s">
-        <v>139</v>
+      <c r="D21" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="C23" s="16" t="s">
-        <v>122</v>
+      <c r="C23" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>123</v>
+      <c r="A25" s="2">
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2"/>
-      <c r="C27" s="23" t="s">
-        <v>174</v>
+      <c r="C27" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="C29" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
-      <c r="D30" s="48" t="s">
-        <v>331</v>
+      <c r="D30" s="38" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
-      <c r="D31" s="48" t="s">
-        <v>329</v>
+      <c r="D31" s="38" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
-      <c r="D32" s="48" t="s">
-        <v>330</v>
+      <c r="D32" s="38" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="2" t="s">
-        <v>123</v>
+      <c r="A33" s="2">
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="C34" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B35" t="s">
+      <c r="L36" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="C37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="C38" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="28.5">
+      <c r="C39" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="C40" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="57">
+      <c r="C41" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="23" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="18" t="s">
+      <c r="H41" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="J41" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="C44" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="D45" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="C37" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="M37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="C38" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="M38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28.5">
-      <c r="C39" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="C40" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="57">
-      <c r="C41" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" t="s">
-        <v>168</v>
+      <c r="C47" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="D48" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="C51" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="C54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="D55" s="53" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="C56" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>772</v>
+      </c>
+      <c r="B58" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="C59" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="D60" s="53" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="D62" s="53" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>773</v>
+      </c>
+      <c r="B63" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="C64" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="E66" s="22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="E67" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -4226,4 +9022,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="16"/>
+      <c r="D2" s="65" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
+        <v>677</v>
+      </c>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65" t="s">
+        <v>679</v>
+      </c>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>693</v>
+      </c>
+      <c r="B17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>694</v>
+      </c>
+      <c r="B26" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" s="54" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" s="54" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>699</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D30" s="54"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>769</v>
+      </c>
+      <c r="D31" s="54"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>770</v>
+      </c>
+      <c r="D32" s="54"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>702</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="D36" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>704</v>
+      </c>
+      <c r="B37" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="D39" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="D40" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="D42" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="E43" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="D44" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="D45" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="D46" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="D47" s="55" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D48" s="55"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>716</v>
+      </c>
+      <c r="B49" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="C50" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="D53" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>718</v>
+      </c>
+      <c r="B55" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="C56" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="C57" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="C58" t="s">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>